--- a/lab_credentials.xlsx
+++ b/lab_credentials.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="54">
   <si>
     <t>25RIC3782_TR</t>
   </si>
@@ -175,13 +175,16 @@
   </si>
   <si>
     <t>Pakalapati, Siva</t>
+  </si>
+  <si>
+    <t>https://cloud4.rpsconsulting.in/console/#/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,6 +209,14 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -261,10 +272,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -278,8 +290,10 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -579,10 +593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -592,7 +606,7 @@
     <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1">
         <v>0</v>
       </c>
@@ -606,7 +620,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -620,7 +634,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -634,7 +648,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -648,7 +662,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -662,7 +676,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -676,7 +690,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -689,8 +703,11 @@
       <c r="D7" s="4" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G7" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -704,7 +721,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -718,7 +735,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -732,7 +749,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -746,7 +763,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -760,7 +777,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -774,7 +791,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -788,7 +805,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -802,7 +819,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -957,8 +974,11 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G7" r:id="rId1" location="/" display="https://cloud4.rpsconsulting.in/console/ - /"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/lab_credentials.xlsx
+++ b/lab_credentials.xlsx
@@ -596,7 +596,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -975,7 +975,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G7" r:id="rId1" location="/" display="https://cloud4.rpsconsulting.in/console/ - /"/>
+    <hyperlink ref="G7" r:id="rId1" location="/" display="/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
